--- a/biology/Zoologie/Climaciella_brunnea/Climaciella_brunnea.xlsx
+++ b/biology/Zoologie/Climaciella_brunnea/Climaciella_brunnea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Climaciella brunnea est une espèce d'insectes névroptères de la famille des Mantispidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Climaciella brunnea vit au Canada et aux États-Unis.
 </t>
@@ -542,7 +556,9 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme chez la plupart des Mantispidae, les larves de cette espèce parasitent des araignées. Les œufs des araignées-loups sont leur hôte préféré. Les larves se laissent envelopper par les araignées dans leurs sacs à œufs, car elles ne pourraient y pénétrer par elles-mêmes. Si l'araignée n'a pas encore pondu, la larve se nourrit de son sang en attendant. Une fois enfermée dans le sac, la larve mange les œufs jusqu'à sa pupaison.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Climaciella brunnea est long de 2 à 3 cm. Ses couleurs imitent celles de certaines guêpes (Polistes sp.).
 			Climaciella brunnea à Cross Plains, dans le Wisconsin.
@@ -607,6 +625,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
